--- a/app/studio/module/palicannon/index.xlsx
+++ b/app/studio/module/palicannon/index.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19809" windowHeight="11178" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pali" sheetId="1" r:id="rId1"/>
     <sheet name="Zh" sheetId="2" r:id="rId2"/>
     <sheet name="Tw" sheetId="3" r:id="rId3"/>
     <sheet name="sin" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pali!$A$1:$Z$218</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7952" uniqueCount="1056">
   <si>
     <t>name</t>
   </si>
@@ -2979,6 +2980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>清淨之道</t>
     </r>
     <r>
@@ -3400,16 +3407,25 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3445,35 +3461,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3487,15 +3474,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3517,7 +3510,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3525,6 +3518,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3539,26 +3554,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3570,24 +3569,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,13 +3624,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3626,67 +3738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3704,25 +3762,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3740,55 +3804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3804,11 +3820,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3828,17 +3857,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3867,26 +3892,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3904,148 +3920,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4456,24 +4472,24 @@
   <sheetPr/>
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView topLeftCell="B182" workbookViewId="0">
-      <selection activeCell="D182" sqref="D$1:E$1048576"/>
+    <sheetView topLeftCell="B189" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="6" width="8.85964912280702" customWidth="1"/>
-    <col min="8" max="8" width="14.5701754385965" customWidth="1"/>
-    <col min="9" max="9" width="19.2894736842105" customWidth="1"/>
-    <col min="10" max="10" width="11.140350877193" customWidth="1"/>
-    <col min="11" max="11" width="36.4298245614035" customWidth="1"/>
+    <col min="3" max="6" width="8.86111111111111" customWidth="1"/>
+    <col min="8" max="8" width="14.5740740740741" customWidth="1"/>
+    <col min="9" max="9" width="19.287037037037" customWidth="1"/>
+    <col min="10" max="10" width="11.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="36.4259259259259" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="6.42982456140351" customWidth="1"/>
-    <col min="14" max="14" width="5.28947368421053" customWidth="1"/>
-    <col min="15" max="15" width="16.140350877193" customWidth="1"/>
-    <col min="16" max="16" width="6.14035087719298" customWidth="1"/>
+    <col min="13" max="13" width="6.42592592592593" customWidth="1"/>
+    <col min="14" max="14" width="5.28703703703704" customWidth="1"/>
+    <col min="15" max="15" width="16.1388888888889" customWidth="1"/>
+    <col min="16" max="16" width="6.13888888888889" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="8.57017543859649" customWidth="1"/>
+    <col min="18" max="18" width="8.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -16962,7 +16978,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z218">
-    <sortState ref="A2:Z218">
+    <sortState ref="A1:Z218">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
@@ -16978,28 +16994,28 @@
   <sheetPr/>
   <dimension ref="A1:X218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:X218"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.49122807017544" customWidth="1"/>
-    <col min="2" max="3" width="2.49122807017544" customWidth="1"/>
-    <col min="4" max="5" width="4.49122807017544" customWidth="1"/>
-    <col min="7" max="10" width="8.85964912280702" customWidth="1"/>
-    <col min="12" max="12" width="14.5701754385965" customWidth="1"/>
-    <col min="13" max="13" width="19.2894736842105" customWidth="1"/>
-    <col min="14" max="14" width="11.140350877193" customWidth="1"/>
-    <col min="15" max="15" width="25.140350877193" customWidth="1"/>
+    <col min="1" max="1" width="7.49074074074074" customWidth="1"/>
+    <col min="2" max="3" width="2.49074074074074" customWidth="1"/>
+    <col min="4" max="5" width="4.49074074074074" customWidth="1"/>
+    <col min="7" max="10" width="8.86111111111111" customWidth="1"/>
+    <col min="12" max="12" width="14.5740740740741" customWidth="1"/>
+    <col min="13" max="13" width="19.287037037037" customWidth="1"/>
+    <col min="14" max="14" width="11.1388888888889" customWidth="1"/>
+    <col min="15" max="15" width="25.1388888888889" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="15.4298245614035" customWidth="1"/>
-    <col min="18" max="18" width="5.28947368421053" customWidth="1"/>
-    <col min="19" max="19" width="16.140350877193" customWidth="1"/>
-    <col min="20" max="20" width="6.14035087719298" customWidth="1"/>
-    <col min="22" max="22" width="8.57017543859649" customWidth="1"/>
+    <col min="17" max="17" width="15.4259259259259" customWidth="1"/>
+    <col min="18" max="18" width="5.28703703703704" customWidth="1"/>
+    <col min="19" max="19" width="16.1388888888889" customWidth="1"/>
+    <col min="20" max="20" width="6.13888888888889" customWidth="1"/>
+    <col min="22" max="22" width="8.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -17036,7 +17052,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <f>B2*10+C2+D2/10+E2/100</f>
+        <f t="shared" ref="A2:A65" si="0">B2*10+C2+D2/10+E2/100</f>
         <v>11.11</v>
       </c>
       <c r="B2">
@@ -17108,7 +17124,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <f>B3*10+C3+D3/10+E3/100</f>
+        <f t="shared" si="0"/>
         <v>11.12</v>
       </c>
       <c r="B3">
@@ -17180,7 +17196,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <f>B4*10+C4+D4/10+E4/100</f>
+        <f t="shared" si="0"/>
         <v>11.13</v>
       </c>
       <c r="B4">
@@ -17252,7 +17268,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <f>B5*10+C5+D5/10+E5/100</f>
+        <f t="shared" si="0"/>
         <v>11.21</v>
       </c>
       <c r="B5">
@@ -17324,7 +17340,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <f>B6*10+C6+D6/10+E6/100</f>
+        <f t="shared" si="0"/>
         <v>11.22</v>
       </c>
       <c r="B6">
@@ -17396,7 +17412,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <f>B7*10+C7+D7/10+E7/100</f>
+        <f t="shared" si="0"/>
         <v>11.23</v>
       </c>
       <c r="B7">
@@ -17468,7 +17484,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <f>B8*10+C8+D8/10+E8/100</f>
+        <f t="shared" si="0"/>
         <v>11.31</v>
       </c>
       <c r="B8">
@@ -17540,7 +17556,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <f>B9*10+C9+D9/10+E9/100</f>
+        <f t="shared" si="0"/>
         <v>11.32</v>
       </c>
       <c r="B9">
@@ -17612,7 +17628,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <f>B10*10+C10+D10/10+E10/100</f>
+        <f t="shared" si="0"/>
         <v>11.33</v>
       </c>
       <c r="B10">
@@ -17684,7 +17700,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <f>B11*10+C11+D11/10+E11/100</f>
+        <f t="shared" si="0"/>
         <v>11.34</v>
       </c>
       <c r="B11">
@@ -17756,7 +17772,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <f>B12*10+C12+D12/10+E12/100</f>
+        <f t="shared" si="0"/>
         <v>11.35</v>
       </c>
       <c r="B12">
@@ -17828,7 +17844,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <f>B13*10+C13+D13/10+E13/100</f>
+        <f t="shared" si="0"/>
         <v>11.41</v>
       </c>
       <c r="B13">
@@ -17900,7 +17916,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <f>B14*10+C14+D14/10+E14/100</f>
+        <f t="shared" si="0"/>
         <v>11.42</v>
       </c>
       <c r="B14">
@@ -17972,7 +17988,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <f>B15*10+C15+D15/10+E15/100</f>
+        <f t="shared" si="0"/>
         <v>11.43</v>
       </c>
       <c r="B15">
@@ -18044,7 +18060,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <f>B16*10+C16+D16/10+E16/100</f>
+        <f t="shared" si="0"/>
         <v>11.44</v>
       </c>
       <c r="B16">
@@ -18116,7 +18132,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17">
-        <f>B17*10+C17+D17/10+E17/100</f>
+        <f t="shared" si="0"/>
         <v>11.45</v>
       </c>
       <c r="B17">
@@ -18188,7 +18204,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
-        <f>B18*10+C18+D18/10+E18/100</f>
+        <f t="shared" si="0"/>
         <v>11.46</v>
       </c>
       <c r="B18">
@@ -18260,7 +18276,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <f>B19*10+C19+D19/10+E19/100</f>
+        <f t="shared" si="0"/>
         <v>11.47</v>
       </c>
       <c r="B19">
@@ -18332,7 +18348,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <f>B20*10+C20+D20/10+E20/100</f>
+        <f t="shared" si="0"/>
         <v>11.48</v>
       </c>
       <c r="B20">
@@ -18404,7 +18420,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <f>B21*10+C21+D21/10+E21/100</f>
+        <f t="shared" si="0"/>
         <v>11.49</v>
       </c>
       <c r="B21">
@@ -18476,7 +18492,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
-        <f>B22*10+C22+D22/10+E22/100</f>
+        <f t="shared" si="0"/>
         <v>11.491</v>
       </c>
       <c r="B22">
@@ -18548,7 +18564,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <f>B23*10+C23+D23/10+E23/100</f>
+        <f t="shared" si="0"/>
         <v>11.492</v>
       </c>
       <c r="B23">
@@ -18620,7 +18636,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
-        <f>B24*10+C24+D24/10+E24/100</f>
+        <f t="shared" si="0"/>
         <v>11.51</v>
       </c>
       <c r="B24">
@@ -18692,7 +18708,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
-        <f>B25*10+C25+D25/10+E25/100</f>
+        <f t="shared" si="0"/>
         <v>11.52</v>
       </c>
       <c r="B25">
@@ -18764,7 +18780,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <f>B26*10+C26+D26/10+E26/100</f>
+        <f t="shared" si="0"/>
         <v>11.53</v>
       </c>
       <c r="B26">
@@ -18836,7 +18852,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <f>B27*10+C27+D27/10+E27/100</f>
+        <f t="shared" si="0"/>
         <v>11.54</v>
       </c>
       <c r="B27">
@@ -18908,7 +18924,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <f>B28*10+C28+D28/10+E28/100</f>
+        <f t="shared" si="0"/>
         <v>11.55</v>
       </c>
       <c r="B28">
@@ -18980,7 +18996,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <f>B29*10+C29+D29/10+E29/100</f>
+        <f t="shared" si="0"/>
         <v>11.56</v>
       </c>
       <c r="B29">
@@ -19052,7 +19068,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <f>B30*10+C30+D30/10+E30/100</f>
+        <f t="shared" si="0"/>
         <v>11.57</v>
       </c>
       <c r="B30">
@@ -19124,7 +19140,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <f>B31*10+C31+D31/10+E31/100</f>
+        <f t="shared" si="0"/>
         <v>11.575</v>
       </c>
       <c r="B31">
@@ -19196,7 +19212,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <f>B32*10+C32+D32/10+E32/100</f>
+        <f t="shared" si="0"/>
         <v>11.58</v>
       </c>
       <c r="B32">
@@ -19268,7 +19284,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <f>B33*10+C33+D33/10+E33/100</f>
+        <f t="shared" si="0"/>
         <v>11.581</v>
       </c>
       <c r="B33">
@@ -19340,7 +19356,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <f>B34*10+C34+D34/10+E34/100</f>
+        <f t="shared" si="0"/>
         <v>11.582</v>
       </c>
       <c r="B34">
@@ -19412,7 +19428,7 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
-        <f>B35*10+C35+D35/10+E35/100</f>
+        <f t="shared" si="0"/>
         <v>11.583</v>
       </c>
       <c r="B35">
@@ -19484,7 +19500,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
-        <f>B36*10+C36+D36/10+E36/100</f>
+        <f t="shared" si="0"/>
         <v>11.584</v>
       </c>
       <c r="B36">
@@ -19556,7 +19572,7 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
-        <f>B37*10+C37+D37/10+E37/100</f>
+        <f t="shared" si="0"/>
         <v>11.585</v>
       </c>
       <c r="B37">
@@ -19628,7 +19644,7 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
-        <f>B38*10+C38+D38/10+E38/100</f>
+        <f t="shared" si="0"/>
         <v>11.586</v>
       </c>
       <c r="B38">
@@ -19700,7 +19716,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
-        <f>B39*10+C39+D39/10+E39/100</f>
+        <f t="shared" si="0"/>
         <v>11.587</v>
       </c>
       <c r="B39">
@@ -19772,7 +19788,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
-        <f>B40*10+C40+D40/10+E40/100</f>
+        <f t="shared" si="0"/>
         <v>11.588</v>
       </c>
       <c r="B40">
@@ -19844,7 +19860,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41">
-        <f>B41*10+C41+D41/10+E41/100</f>
+        <f t="shared" si="0"/>
         <v>11.589</v>
       </c>
       <c r="B41">
@@ -19916,7 +19932,7 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42">
-        <f>B42*10+C42+D42/10+E42/100</f>
+        <f t="shared" si="0"/>
         <v>11.59</v>
       </c>
       <c r="B42">
@@ -19988,7 +20004,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
-        <f>B43*10+C43+D43/10+E43/100</f>
+        <f t="shared" si="0"/>
         <v>11.591</v>
       </c>
       <c r="B43">
@@ -20060,7 +20076,7 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44">
-        <f>B44*10+C44+D44/10+E44/100</f>
+        <f t="shared" si="0"/>
         <v>11.592</v>
       </c>
       <c r="B44">
@@ -20132,7 +20148,7 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
-        <f>B45*10+C45+D45/10+E45/100</f>
+        <f t="shared" si="0"/>
         <v>12.11</v>
       </c>
       <c r="B45">
@@ -20204,7 +20220,7 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46">
-        <f>B46*10+C46+D46/10+E46/100</f>
+        <f t="shared" si="0"/>
         <v>12.12</v>
       </c>
       <c r="B46">
@@ -20276,7 +20292,7 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47">
-        <f>B47*10+C47+D47/10+E47/100</f>
+        <f t="shared" si="0"/>
         <v>12.21</v>
       </c>
       <c r="B47">
@@ -20348,7 +20364,7 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48">
-        <f>B48*10+C48+D48/10+E48/100</f>
+        <f t="shared" si="0"/>
         <v>12.22</v>
       </c>
       <c r="B48">
@@ -20420,7 +20436,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49">
-        <f>B49*10+C49+D49/10+E49/100</f>
+        <f t="shared" si="0"/>
         <v>12.31</v>
       </c>
       <c r="B49">
@@ -20492,7 +20508,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50">
-        <f>B50*10+C50+D50/10+E50/100</f>
+        <f t="shared" si="0"/>
         <v>13.1</v>
       </c>
       <c r="B50">
@@ -20561,7 +20577,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51">
-        <f>B51*10+C51+D51/10+E51/100</f>
+        <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
       <c r="B51">
@@ -20630,7 +20646,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52">
-        <f>B52*10+C52+D52/10+E52/100</f>
+        <f t="shared" si="0"/>
         <v>13.3</v>
       </c>
       <c r="B52">
@@ -20699,7 +20715,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53">
-        <f>B53*10+C53+D53/10+E53/100</f>
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
       <c r="B53">
@@ -20768,7 +20784,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54">
-        <f>B54*10+C54+D54/10+E54/100</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="B54">
@@ -20837,7 +20853,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55">
-        <f>B55*10+C55+D55/10+E55/100</f>
+        <f t="shared" si="0"/>
         <v>13.61</v>
       </c>
       <c r="B55">
@@ -20909,7 +20925,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56">
-        <f>B56*10+C56+D56/10+E56/100</f>
+        <f t="shared" si="0"/>
         <v>13.62</v>
       </c>
       <c r="B56">
@@ -20981,7 +20997,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57">
-        <f>B57*10+C57+D57/10+E57/100</f>
+        <f t="shared" si="0"/>
         <v>13.63</v>
       </c>
       <c r="B57">
@@ -21053,7 +21069,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58">
-        <f>B58*10+C58+D58/10+E58/100</f>
+        <f t="shared" si="0"/>
         <v>13.71</v>
       </c>
       <c r="B58">
@@ -21125,7 +21141,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59">
-        <f>B59*10+C59+D59/10+E59/100</f>
+        <f t="shared" si="0"/>
         <v>13.72</v>
       </c>
       <c r="B59">
@@ -21197,7 +21213,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60">
-        <f>B60*10+C60+D60/10+E60/100</f>
+        <f t="shared" si="0"/>
         <v>13.73</v>
       </c>
       <c r="B60">
@@ -21269,7 +21285,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61">
-        <f>B61*10+C61+D61/10+E61/100</f>
+        <f t="shared" si="0"/>
         <v>13.74</v>
       </c>
       <c r="B61">
@@ -21341,7 +21357,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62">
-        <f>B62*10+C62+D62/10+E62/100</f>
+        <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
       <c r="B62">
@@ -21413,7 +21429,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63">
-        <f>B63*10+C63+D63/10+E63/100</f>
+        <f t="shared" si="0"/>
         <v>21.11</v>
       </c>
       <c r="B63">
@@ -21485,7 +21501,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64">
-        <f>B64*10+C64+D64/10+E64/100</f>
+        <f t="shared" si="0"/>
         <v>21.12</v>
       </c>
       <c r="B64">
@@ -21557,7 +21573,7 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65">
-        <f>B65*10+C65+D65/10+E65/100</f>
+        <f t="shared" si="0"/>
         <v>21.13</v>
       </c>
       <c r="B65">
@@ -21629,7 +21645,7 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66">
-        <f>B66*10+C66+D66/10+E66/100</f>
+        <f t="shared" ref="A66:A129" si="1">B66*10+C66+D66/10+E66/100</f>
         <v>21.21</v>
       </c>
       <c r="B66">
@@ -21701,7 +21717,7 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67">
-        <f>B67*10+C67+D67/10+E67/100</f>
+        <f t="shared" si="1"/>
         <v>21.22</v>
       </c>
       <c r="B67">
@@ -21773,7 +21789,7 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68">
-        <f>B68*10+C68+D68/10+E68/100</f>
+        <f t="shared" si="1"/>
         <v>21.23</v>
       </c>
       <c r="B68">
@@ -21845,7 +21861,7 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69">
-        <f>B69*10+C69+D69/10+E69/100</f>
+        <f t="shared" si="1"/>
         <v>21.31</v>
       </c>
       <c r="B69">
@@ -21917,7 +21933,7 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70">
-        <f>B70*10+C70+D70/10+E70/100</f>
+        <f t="shared" si="1"/>
         <v>21.32</v>
       </c>
       <c r="B70">
@@ -21989,7 +22005,7 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71">
-        <f>B71*10+C71+D71/10+E71/100</f>
+        <f t="shared" si="1"/>
         <v>21.33</v>
       </c>
       <c r="B71">
@@ -22061,7 +22077,7 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72">
-        <f>B72*10+C72+D72/10+E72/100</f>
+        <f t="shared" si="1"/>
         <v>21.34</v>
       </c>
       <c r="B72">
@@ -22133,7 +22149,7 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73">
-        <f>B73*10+C73+D73/10+E73/100</f>
+        <f t="shared" si="1"/>
         <v>21.35</v>
       </c>
       <c r="B73">
@@ -22205,7 +22221,7 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74">
-        <f>B74*10+C74+D74/10+E74/100</f>
+        <f t="shared" si="1"/>
         <v>21.41</v>
       </c>
       <c r="B74">
@@ -22277,7 +22293,7 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75">
-        <f>B75*10+C75+D75/10+E75/100</f>
+        <f t="shared" si="1"/>
         <v>21.42</v>
       </c>
       <c r="B75">
@@ -22349,7 +22365,7 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76">
-        <f>B76*10+C76+D76/10+E76/100</f>
+        <f t="shared" si="1"/>
         <v>21.43</v>
       </c>
       <c r="B76">
@@ -22421,7 +22437,7 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77">
-        <f>B77*10+C77+D77/10+E77/100</f>
+        <f t="shared" si="1"/>
         <v>21.44</v>
       </c>
       <c r="B77">
@@ -22493,7 +22509,7 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78">
-        <f>B78*10+C78+D78/10+E78/100</f>
+        <f t="shared" si="1"/>
         <v>21.51</v>
       </c>
       <c r="B78">
@@ -22565,7 +22581,7 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79">
-        <f>B79*10+C79+D79/10+E79/100</f>
+        <f t="shared" si="1"/>
         <v>21.52</v>
       </c>
       <c r="B79">
@@ -22637,7 +22653,7 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80">
-        <f>B80*10+C80+D80/10+E80/100</f>
+        <f t="shared" si="1"/>
         <v>21.53</v>
       </c>
       <c r="B80">
@@ -22709,7 +22725,7 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81">
-        <f>B81*10+C81+D81/10+E81/100</f>
+        <f t="shared" si="1"/>
         <v>21.54</v>
       </c>
       <c r="B81">
@@ -22781,7 +22797,7 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82">
-        <f>B82*10+C82+D82/10+E82/100</f>
+        <f t="shared" si="1"/>
         <v>21.55</v>
       </c>
       <c r="B82">
@@ -22853,7 +22869,7 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83">
-        <f>B83*10+C83+D83/10+E83/100</f>
+        <f t="shared" si="1"/>
         <v>21.56</v>
       </c>
       <c r="B83">
@@ -22925,7 +22941,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84">
-        <f>B84*10+C84+D84/10+E84/100</f>
+        <f t="shared" si="1"/>
         <v>21.57</v>
       </c>
       <c r="B84">
@@ -22997,7 +23013,7 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85">
-        <f>B85*10+C85+D85/10+E85/100</f>
+        <f t="shared" si="1"/>
         <v>21.58</v>
       </c>
       <c r="B85">
@@ -23069,7 +23085,7 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86">
-        <f>B86*10+C86+D86/10+E86/100</f>
+        <f t="shared" si="1"/>
         <v>21.581</v>
       </c>
       <c r="B86">
@@ -23141,7 +23157,7 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87">
-        <f>B87*10+C87+D87/10+E87/100</f>
+        <f t="shared" si="1"/>
         <v>21.582</v>
       </c>
       <c r="B87">
@@ -23213,7 +23229,7 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88">
-        <f>B88*10+C88+D88/10+E88/100</f>
+        <f t="shared" si="1"/>
         <v>21.583</v>
       </c>
       <c r="B88">
@@ -23285,7 +23301,7 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89">
-        <f>B89*10+C89+D89/10+E89/100</f>
+        <f t="shared" si="1"/>
         <v>21.584</v>
       </c>
       <c r="B89">
@@ -23357,7 +23373,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90">
-        <f>B90*10+C90+D90/10+E90/100</f>
+        <f t="shared" si="1"/>
         <v>21.585</v>
       </c>
       <c r="B90">
@@ -23429,7 +23445,7 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91">
-        <f>B91*10+C91+D91/10+E91/100</f>
+        <f t="shared" si="1"/>
         <v>21.586</v>
       </c>
       <c r="B91">
@@ -23501,7 +23517,7 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92">
-        <f>B92*10+C92+D92/10+E92/100</f>
+        <f t="shared" si="1"/>
         <v>21.587</v>
       </c>
       <c r="B92">
@@ -23573,7 +23589,7 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93">
-        <f>B93*10+C93+D93/10+E93/100</f>
+        <f t="shared" si="1"/>
         <v>21.588</v>
       </c>
       <c r="B93">
@@ -23645,7 +23661,7 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94">
-        <f>B94*10+C94+D94/10+E94/100</f>
+        <f t="shared" si="1"/>
         <v>21.589</v>
       </c>
       <c r="B94">
@@ -23717,7 +23733,7 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95">
-        <f>B95*10+C95+D95/10+E95/100</f>
+        <f t="shared" si="1"/>
         <v>21.59</v>
       </c>
       <c r="B95">
@@ -23789,7 +23805,7 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96">
-        <f>B96*10+C96+D96/10+E96/100</f>
+        <f t="shared" si="1"/>
         <v>21.591</v>
       </c>
       <c r="B96">
@@ -23861,7 +23877,7 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97">
-        <f>B97*10+C97+D97/10+E97/100</f>
+        <f t="shared" si="1"/>
         <v>21.592</v>
       </c>
       <c r="B97">
@@ -23933,7 +23949,7 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98">
-        <f>B98*10+C98+D98/10+E98/100</f>
+        <f t="shared" si="1"/>
         <v>21.593</v>
       </c>
       <c r="B98">
@@ -24005,7 +24021,7 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99">
-        <f>B99*10+C99+D99/10+E99/100</f>
+        <f t="shared" si="1"/>
         <v>21.594</v>
       </c>
       <c r="B99">
@@ -24077,7 +24093,7 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100">
-        <f>B100*10+C100+D100/10+E100/100</f>
+        <f t="shared" si="1"/>
         <v>21.595</v>
       </c>
       <c r="B100">
@@ -24149,7 +24165,7 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101">
-        <f>B101*10+C101+D101/10+E101/100</f>
+        <f t="shared" si="1"/>
         <v>21.596</v>
       </c>
       <c r="B101">
@@ -24221,7 +24237,7 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102">
-        <f>B102*10+C102+D102/10+E102/100</f>
+        <f t="shared" si="1"/>
         <v>22.11</v>
       </c>
       <c r="B102">
@@ -24293,7 +24309,7 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103">
-        <f>B103*10+C103+D103/10+E103/100</f>
+        <f t="shared" si="1"/>
         <v>22.12</v>
       </c>
       <c r="B103">
@@ -24365,7 +24381,7 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104">
-        <f>B104*10+C104+D104/10+E104/100</f>
+        <f t="shared" si="1"/>
         <v>22.21</v>
       </c>
       <c r="B104">
@@ -24437,7 +24453,7 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105">
-        <f>B105*10+C105+D105/10+E105/100</f>
+        <f t="shared" si="1"/>
         <v>22.22</v>
       </c>
       <c r="B105">
@@ -24509,7 +24525,7 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106">
-        <f>B106*10+C106+D106/10+E106/100</f>
+        <f t="shared" si="1"/>
         <v>22.31</v>
       </c>
       <c r="B106">
@@ -24581,7 +24597,7 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107">
-        <f>B107*10+C107+D107/10+E107/100</f>
+        <f t="shared" si="1"/>
         <v>23.1</v>
       </c>
       <c r="B107">
@@ -24647,7 +24663,7 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108">
-        <f>B108*10+C108+D108/10+E108/100</f>
+        <f t="shared" si="1"/>
         <v>23.2</v>
       </c>
       <c r="B108">
@@ -24713,7 +24729,7 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109">
-        <f>B109*10+C109+D109/10+E109/100</f>
+        <f t="shared" si="1"/>
         <v>23.3</v>
       </c>
       <c r="B109">
@@ -24779,7 +24795,7 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110">
-        <f>B110*10+C110+D110/10+E110/100</f>
+        <f t="shared" si="1"/>
         <v>31.11</v>
       </c>
       <c r="B110">
@@ -24851,7 +24867,7 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111">
-        <f>B111*10+C111+D111/10+E111/100</f>
+        <f t="shared" si="1"/>
         <v>31.12</v>
       </c>
       <c r="B111">
@@ -24923,7 +24939,7 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112">
-        <f>B112*10+C112+D112/10+E112/100</f>
+        <f t="shared" si="1"/>
         <v>31.13</v>
       </c>
       <c r="B112">
@@ -24995,7 +25011,7 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113">
-        <f>B113*10+C113+D113/10+E113/100</f>
+        <f t="shared" si="1"/>
         <v>31.14</v>
       </c>
       <c r="B113">
@@ -25067,7 +25083,7 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114">
-        <f>B114*10+C114+D114/10+E114/100</f>
+        <f t="shared" si="1"/>
         <v>31.15</v>
       </c>
       <c r="B114">
@@ -25139,7 +25155,7 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115">
-        <f>B115*10+C115+D115/10+E115/100</f>
+        <f t="shared" si="1"/>
         <v>31.21</v>
       </c>
       <c r="B115">
@@ -25211,7 +25227,7 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116">
-        <f>B116*10+C116+D116/10+E116/100</f>
+        <f t="shared" si="1"/>
         <v>31.22</v>
       </c>
       <c r="B116">
@@ -25283,7 +25299,7 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117">
-        <f>B117*10+C117+D117/10+E117/100</f>
+        <f t="shared" si="1"/>
         <v>31.23</v>
       </c>
       <c r="B117">
@@ -25355,7 +25371,7 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118">
-        <f>B118*10+C118+D118/10+E118/100</f>
+        <f t="shared" si="1"/>
         <v>31.31</v>
       </c>
       <c r="B118">
@@ -25427,7 +25443,7 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119">
-        <f>B119*10+C119+D119/10+E119/100</f>
+        <f t="shared" si="1"/>
         <v>31.32</v>
       </c>
       <c r="B119">
@@ -25499,7 +25515,7 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120">
-        <f>B120*10+C120+D120/10+E120/100</f>
+        <f t="shared" si="1"/>
         <v>31.33</v>
       </c>
       <c r="B120">
@@ -25571,7 +25587,7 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121">
-        <f>B121*10+C121+D121/10+E121/100</f>
+        <f t="shared" si="1"/>
         <v>31.34</v>
       </c>
       <c r="B121">
@@ -25643,7 +25659,7 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122">
-        <f>B122*10+C122+D122/10+E122/100</f>
+        <f t="shared" si="1"/>
         <v>31.35</v>
       </c>
       <c r="B122">
@@ -25715,7 +25731,7 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123">
-        <f>B123*10+C123+D123/10+E123/100</f>
+        <f t="shared" si="1"/>
         <v>31.41</v>
       </c>
       <c r="B123">
@@ -25787,7 +25803,7 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124">
-        <f>B124*10+C124+D124/10+E124/100</f>
+        <f t="shared" si="1"/>
         <v>31.42</v>
       </c>
       <c r="B124">
@@ -25859,7 +25875,7 @@
     </row>
     <row r="125" spans="1:24">
       <c r="A125">
-        <f>B125*10+C125+D125/10+E125/100</f>
+        <f t="shared" si="1"/>
         <v>31.43</v>
       </c>
       <c r="B125">
@@ -25931,7 +25947,7 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126">
-        <f>B126*10+C126+D126/10+E126/100</f>
+        <f t="shared" si="1"/>
         <v>31.44</v>
       </c>
       <c r="B126">
@@ -26003,7 +26019,7 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127">
-        <f>B127*10+C127+D127/10+E127/100</f>
+        <f t="shared" si="1"/>
         <v>31.51</v>
       </c>
       <c r="B127">
@@ -26075,7 +26091,7 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128">
-        <f>B128*10+C128+D128/10+E128/100</f>
+        <f t="shared" si="1"/>
         <v>31.52</v>
       </c>
       <c r="B128">
@@ -26147,7 +26163,7 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129">
-        <f>B129*10+C129+D129/10+E129/100</f>
+        <f t="shared" si="1"/>
         <v>32.1</v>
       </c>
       <c r="B129">
@@ -26213,7 +26229,7 @@
     </row>
     <row r="130" spans="1:24">
       <c r="A130">
-        <f>B130*10+C130+D130/10+E130/100</f>
+        <f t="shared" ref="A130:A193" si="2">B130*10+C130+D130/10+E130/100</f>
         <v>32.2</v>
       </c>
       <c r="B130">
@@ -26279,7 +26295,7 @@
     </row>
     <row r="131" spans="1:24">
       <c r="A131">
-        <f>B131*10+C131+D131/10+E131/100</f>
+        <f t="shared" si="2"/>
         <v>32.3</v>
       </c>
       <c r="B131">
@@ -26345,7 +26361,7 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132">
-        <f>B132*10+C132+D132/10+E132/100</f>
+        <f t="shared" si="2"/>
         <v>32.4</v>
       </c>
       <c r="B132">
@@ -26411,7 +26427,7 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133">
-        <f>B133*10+C133+D133/10+E133/100</f>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
       <c r="B133">
@@ -26477,7 +26493,7 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134">
-        <f>B134*10+C134+D134/10+E134/100</f>
+        <f t="shared" si="2"/>
         <v>32.6</v>
       </c>
       <c r="B134">
@@ -26543,7 +26559,7 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135">
-        <f>B135*10+C135+D135/10+E135/100</f>
+        <f t="shared" si="2"/>
         <v>32.7</v>
       </c>
       <c r="B135">
@@ -26609,7 +26625,7 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136">
-        <f>B136*10+C136+D136/10+E136/100</f>
+        <f t="shared" si="2"/>
         <v>32.8</v>
       </c>
       <c r="B136">
@@ -26675,7 +26691,7 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137">
-        <f>B137*10+C137+D137/10+E137/100</f>
+        <f t="shared" si="2"/>
         <v>32.9</v>
       </c>
       <c r="B137">
@@ -26741,7 +26757,7 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138">
-        <f>B138*10+C138+D138/10+E138/100</f>
+        <f t="shared" si="2"/>
         <v>32.91</v>
       </c>
       <c r="B138">
@@ -26807,7 +26823,7 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139">
-        <f>B139*10+C139+D139/10+E139/100</f>
+        <f t="shared" si="2"/>
         <v>32.92</v>
       </c>
       <c r="B139">
@@ -26873,7 +26889,7 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140">
-        <f>B140*10+C140+D140/10+E140/100</f>
+        <f t="shared" si="2"/>
         <v>32.93</v>
       </c>
       <c r="B140">
@@ -26939,7 +26955,7 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141">
-        <f>B141*10+C141+D141/10+E141/100</f>
+        <f t="shared" si="2"/>
         <v>32.94</v>
       </c>
       <c r="B141">
@@ -27005,7 +27021,7 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142">
-        <f>B142*10+C142+D142/10+E142/100</f>
+        <f t="shared" si="2"/>
         <v>33.1</v>
       </c>
       <c r="B142">
@@ -27071,7 +27087,7 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143">
-        <f>B143*10+C143+D143/10+E143/100</f>
+        <f t="shared" si="2"/>
         <v>33.2</v>
       </c>
       <c r="B143">
@@ -27137,7 +27153,7 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144">
-        <f>B144*10+C144+D144/10+E144/100</f>
+        <f t="shared" si="2"/>
         <v>33.3</v>
       </c>
       <c r="B144">
@@ -27203,7 +27219,7 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145">
-        <f>B145*10+C145+D145/10+E145/100</f>
+        <f t="shared" si="2"/>
         <v>33.4</v>
       </c>
       <c r="B145">
@@ -27269,7 +27285,7 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146">
-        <f>B146*10+C146+D146/10+E146/100</f>
+        <f t="shared" si="2"/>
         <v>33.5</v>
       </c>
       <c r="B146">
@@ -27335,7 +27351,7 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147">
-        <f>B147*10+C147+D147/10+E147/100</f>
+        <f t="shared" si="2"/>
         <v>33.6</v>
       </c>
       <c r="B147">
@@ -27401,7 +27417,7 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148">
-        <f>B148*10+C148+D148/10+E148/100</f>
+        <f t="shared" si="2"/>
         <v>33.7</v>
       </c>
       <c r="B148">
@@ -27467,7 +27483,7 @@
     </row>
     <row r="149" spans="1:24">
       <c r="A149">
-        <f>B149*10+C149+D149/10+E149/100</f>
+        <f t="shared" si="2"/>
         <v>33.8</v>
       </c>
       <c r="B149">
@@ -27533,7 +27549,7 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150">
-        <f>B150*10+C150+D150/10+E150/100</f>
+        <f t="shared" si="2"/>
         <v>33.9</v>
       </c>
       <c r="B150">
@@ -27599,7 +27615,7 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151">
-        <f>B151*10+C151+D151/10+E151/100</f>
+        <f t="shared" si="2"/>
         <v>41.1</v>
       </c>
       <c r="B151">
@@ -27665,7 +27681,7 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152">
-        <f>B152*10+C152+D152/10+E152/100</f>
+        <f t="shared" si="2"/>
         <v>41.2</v>
       </c>
       <c r="B152">
@@ -27731,7 +27747,7 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153">
-        <f>B153*10+C153+D153/10+E153/100</f>
+        <f t="shared" si="2"/>
         <v>41.3</v>
       </c>
       <c r="B153">
@@ -27797,7 +27813,7 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154">
-        <f>B154*10+C154+D154/10+E154/100</f>
+        <f t="shared" si="2"/>
         <v>41.4</v>
       </c>
       <c r="B154">
@@ -27863,7 +27879,7 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155">
-        <f>B155*10+C155+D155/10+E155/100</f>
+        <f t="shared" si="2"/>
         <v>41.5</v>
       </c>
       <c r="B155">
@@ -27929,7 +27945,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156">
-        <f>B156*10+C156+D156/10+E156/100</f>
+        <f t="shared" si="2"/>
         <v>42.1</v>
       </c>
       <c r="B156">
@@ -27995,7 +28011,7 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157">
-        <f>B157*10+C157+D157/10+E157/100</f>
+        <f t="shared" si="2"/>
         <v>42.2</v>
       </c>
       <c r="B157">
@@ -28061,7 +28077,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158">
-        <f>B158*10+C158+D158/10+E158/100</f>
+        <f t="shared" si="2"/>
         <v>42.3</v>
       </c>
       <c r="B158">
@@ -28127,7 +28143,7 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159">
-        <f>B159*10+C159+D159/10+E159/100</f>
+        <f t="shared" si="2"/>
         <v>42.4</v>
       </c>
       <c r="B159">
@@ -28193,7 +28209,7 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160">
-        <f>B160*10+C160+D160/10+E160/100</f>
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
       <c r="B160">
@@ -28259,7 +28275,7 @@
     </row>
     <row r="161" spans="1:24">
       <c r="A161">
-        <f>B161*10+C161+D161/10+E161/100</f>
+        <f t="shared" si="2"/>
         <v>42.6</v>
       </c>
       <c r="B161">
@@ -28325,7 +28341,7 @@
     </row>
     <row r="162" spans="1:24">
       <c r="A162">
-        <f>B162*10+C162+D162/10+E162/100</f>
+        <f t="shared" si="2"/>
         <v>42.7</v>
       </c>
       <c r="B162">
@@ -28391,7 +28407,7 @@
     </row>
     <row r="163" spans="1:24">
       <c r="A163">
-        <f>B163*10+C163+D163/10+E163/100</f>
+        <f t="shared" si="2"/>
         <v>43.1</v>
       </c>
       <c r="B163">
@@ -28457,7 +28473,7 @@
     </row>
     <row r="164" spans="1:24">
       <c r="A164">
-        <f>B164*10+C164+D164/10+E164/100</f>
+        <f t="shared" si="2"/>
         <v>43.2</v>
       </c>
       <c r="B164">
@@ -28523,7 +28539,7 @@
     </row>
     <row r="165" spans="1:24">
       <c r="A165">
-        <f>B165*10+C165+D165/10+E165/100</f>
+        <f t="shared" si="2"/>
         <v>43.3</v>
       </c>
       <c r="B165">
@@ -28589,7 +28605,7 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166">
-        <f>B166*10+C166+D166/10+E166/100</f>
+        <f t="shared" si="2"/>
         <v>43.4</v>
       </c>
       <c r="B166">
@@ -28655,7 +28671,7 @@
     </row>
     <row r="167" spans="1:24">
       <c r="A167">
-        <f>B167*10+C167+D167/10+E167/100</f>
+        <f t="shared" si="2"/>
         <v>44.1</v>
       </c>
       <c r="B167">
@@ -28721,7 +28737,7 @@
     </row>
     <row r="168" spans="1:24">
       <c r="A168">
-        <f>B168*10+C168+D168/10+E168/100</f>
+        <f t="shared" si="2"/>
         <v>44.2</v>
       </c>
       <c r="B168">
@@ -28787,7 +28803,7 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169">
-        <f>B169*10+C169+D169/10+E169/100</f>
+        <f t="shared" si="2"/>
         <v>44.3</v>
       </c>
       <c r="B169">
@@ -28853,7 +28869,7 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170">
-        <f>B170*10+C170+D170/10+E170/100</f>
+        <f t="shared" si="2"/>
         <v>44.4</v>
       </c>
       <c r="B170">
@@ -28919,7 +28935,7 @@
     </row>
     <row r="171" spans="1:24">
       <c r="A171">
-        <f>B171*10+C171+D171/10+E171/100</f>
+        <f t="shared" si="2"/>
         <v>44.5</v>
       </c>
       <c r="B171">
@@ -28985,7 +29001,7 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172">
-        <f>B172*10+C172+D172/10+E172/100</f>
+        <f t="shared" si="2"/>
         <v>44.6</v>
       </c>
       <c r="B172">
@@ -29051,7 +29067,7 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173">
-        <f>B173*10+C173+D173/10+E173/100</f>
+        <f t="shared" si="2"/>
         <v>44.7</v>
       </c>
       <c r="B173">
@@ -29117,7 +29133,7 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174">
-        <f>B174*10+C174+D174/10+E174/100</f>
+        <f t="shared" si="2"/>
         <v>44.8</v>
       </c>
       <c r="B174">
@@ -29183,7 +29199,7 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175">
-        <f>B175*10+C175+D175/10+E175/100</f>
+        <f t="shared" si="2"/>
         <v>45.1</v>
       </c>
       <c r="B175">
@@ -29249,7 +29265,7 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176">
-        <f>B176*10+C176+D176/10+E176/100</f>
+        <f t="shared" si="2"/>
         <v>45.2</v>
       </c>
       <c r="B176">
@@ -29315,7 +29331,7 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177">
-        <f>B177*10+C177+D177/10+E177/100</f>
+        <f t="shared" si="2"/>
         <v>45.3</v>
       </c>
       <c r="B177">
@@ -29381,7 +29397,7 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178">
-        <f>B178*10+C178+D178/10+E178/100</f>
+        <f t="shared" si="2"/>
         <v>46.1</v>
       </c>
       <c r="B178">
@@ -29447,7 +29463,7 @@
     </row>
     <row r="179" spans="1:24">
       <c r="A179">
-        <f>B179*10+C179+D179/10+E179/100</f>
+        <f t="shared" si="2"/>
         <v>46.2</v>
       </c>
       <c r="B179">
@@ -29513,7 +29529,7 @@
     </row>
     <row r="180" spans="1:24">
       <c r="A180">
-        <f>B180*10+C180+D180/10+E180/100</f>
+        <f t="shared" si="2"/>
         <v>46.3</v>
       </c>
       <c r="B180">
@@ -29579,7 +29595,7 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181">
-        <f>B181*10+C181+D181/10+E181/100</f>
+        <f t="shared" si="2"/>
         <v>46.4</v>
       </c>
       <c r="B181">
@@ -29645,7 +29661,7 @@
     </row>
     <row r="182" spans="1:24">
       <c r="A182">
-        <f>B182*10+C182+D182/10+E182/100</f>
+        <f t="shared" si="2"/>
         <v>46.5</v>
       </c>
       <c r="B182">
@@ -29711,7 +29727,7 @@
     </row>
     <row r="183" spans="1:24">
       <c r="A183">
-        <f>B183*10+C183+D183/10+E183/100</f>
+        <f t="shared" si="2"/>
         <v>46.6</v>
       </c>
       <c r="B183">
@@ -29777,7 +29793,7 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184">
-        <f>B184*10+C184+D184/10+E184/100</f>
+        <f t="shared" si="2"/>
         <v>46.7</v>
       </c>
       <c r="B184">
@@ -29843,7 +29859,7 @@
     </row>
     <row r="185" spans="1:24">
       <c r="A185">
-        <f>B185*10+C185+D185/10+E185/100</f>
+        <f t="shared" si="2"/>
         <v>46.8</v>
       </c>
       <c r="B185">
@@ -29909,7 +29925,7 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186">
-        <f>B186*10+C186+D186/10+E186/100</f>
+        <f t="shared" si="2"/>
         <v>46.9</v>
       </c>
       <c r="B186">
@@ -29975,7 +29991,7 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187">
-        <f>B187*10+C187+D187/10+E187/100</f>
+        <f t="shared" si="2"/>
         <v>46.91</v>
       </c>
       <c r="B187">
@@ -30041,7 +30057,7 @@
     </row>
     <row r="188" spans="1:24">
       <c r="A188">
-        <f>B188*10+C188+D188/10+E188/100</f>
+        <f t="shared" si="2"/>
         <v>46.92</v>
       </c>
       <c r="B188">
@@ -30107,7 +30123,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189">
-        <f>B189*10+C189+D189/10+E189/100</f>
+        <f t="shared" si="2"/>
         <v>46.93</v>
       </c>
       <c r="B189">
@@ -30173,7 +30189,7 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190">
-        <f>B190*10+C190+D190/10+E190/100</f>
+        <f t="shared" si="2"/>
         <v>46.94</v>
       </c>
       <c r="B190">
@@ -30239,7 +30255,7 @@
     </row>
     <row r="191" spans="1:24">
       <c r="A191">
-        <f>B191*10+C191+D191/10+E191/100</f>
+        <f t="shared" si="2"/>
         <v>47.1</v>
       </c>
       <c r="B191">
@@ -30305,7 +30321,7 @@
     </row>
     <row r="192" spans="1:24">
       <c r="A192">
-        <f>B192*10+C192+D192/10+E192/100</f>
+        <f t="shared" si="2"/>
         <v>47.2</v>
       </c>
       <c r="B192">
@@ -30371,7 +30387,7 @@
     </row>
     <row r="193" spans="1:24">
       <c r="A193">
-        <f>B193*10+C193+D193/10+E193/100</f>
+        <f t="shared" si="2"/>
         <v>47.3</v>
       </c>
       <c r="B193">
@@ -30437,7 +30453,7 @@
     </row>
     <row r="194" spans="1:24">
       <c r="A194">
-        <f>B194*10+C194+D194/10+E194/100</f>
+        <f t="shared" ref="A194:A218" si="3">B194*10+C194+D194/10+E194/100</f>
         <v>47.4</v>
       </c>
       <c r="B194">
@@ -30503,7 +30519,7 @@
     </row>
     <row r="195" spans="1:24">
       <c r="A195">
-        <f>B195*10+C195+D195/10+E195/100</f>
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="B195">
@@ -30569,7 +30585,7 @@
     </row>
     <row r="196" spans="1:24">
       <c r="A196">
-        <f>B196*10+C196+D196/10+E196/100</f>
+        <f t="shared" si="3"/>
         <v>47.6</v>
       </c>
       <c r="B196">
@@ -30635,7 +30651,7 @@
     </row>
     <row r="197" spans="1:24">
       <c r="A197">
-        <f>B197*10+C197+D197/10+E197/100</f>
+        <f t="shared" si="3"/>
         <v>47.7</v>
       </c>
       <c r="B197">
@@ -30701,7 +30717,7 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198">
-        <f>B198*10+C198+D198/10+E198/100</f>
+        <f t="shared" si="3"/>
         <v>47.8</v>
       </c>
       <c r="B198">
@@ -30767,7 +30783,7 @@
     </row>
     <row r="199" spans="1:24">
       <c r="A199">
-        <f>B199*10+C199+D199/10+E199/100</f>
+        <f t="shared" si="3"/>
         <v>47.9</v>
       </c>
       <c r="B199">
@@ -30833,7 +30849,7 @@
     </row>
     <row r="200" spans="1:24">
       <c r="A200">
-        <f>B200*10+C200+D200/10+E200/100</f>
+        <f t="shared" si="3"/>
         <v>47.91</v>
       </c>
       <c r="B200">
@@ -30899,7 +30915,7 @@
     </row>
     <row r="201" spans="1:24">
       <c r="A201">
-        <f>B201*10+C201+D201/10+E201/100</f>
+        <f t="shared" si="3"/>
         <v>48.1</v>
       </c>
       <c r="B201">
@@ -30965,7 +30981,7 @@
     </row>
     <row r="202" spans="1:24">
       <c r="A202">
-        <f>B202*10+C202+D202/10+E202/100</f>
+        <f t="shared" si="3"/>
         <v>48.2</v>
       </c>
       <c r="B202">
@@ -31031,7 +31047,7 @@
     </row>
     <row r="203" spans="1:24">
       <c r="A203">
-        <f>B203*10+C203+D203/10+E203/100</f>
+        <f t="shared" si="3"/>
         <v>48.3</v>
       </c>
       <c r="B203">
@@ -31097,7 +31113,7 @@
     </row>
     <row r="204" spans="1:24">
       <c r="A204">
-        <f>B204*10+C204+D204/10+E204/100</f>
+        <f t="shared" si="3"/>
         <v>49.1</v>
       </c>
       <c r="B204">
@@ -31163,7 +31179,7 @@
     </row>
     <row r="205" spans="1:24">
       <c r="A205">
-        <f>B205*10+C205+D205/10+E205/100</f>
+        <f t="shared" si="3"/>
         <v>49.2</v>
       </c>
       <c r="B205">
@@ -31229,7 +31245,7 @@
     </row>
     <row r="206" spans="1:24">
       <c r="A206">
-        <f>B206*10+C206+D206/10+E206/100</f>
+        <f t="shared" si="3"/>
         <v>49.3</v>
       </c>
       <c r="B206">
@@ -31295,7 +31311,7 @@
     </row>
     <row r="207" spans="1:24">
       <c r="A207">
-        <f>B207*10+C207+D207/10+E207/100</f>
+        <f t="shared" si="3"/>
         <v>49.4</v>
       </c>
       <c r="B207">
@@ -31361,7 +31377,7 @@
     </row>
     <row r="208" spans="1:24">
       <c r="A208">
-        <f>B208*10+C208+D208/10+E208/100</f>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="B208">
@@ -31427,7 +31443,7 @@
     </row>
     <row r="209" spans="1:24">
       <c r="A209">
-        <f>B209*10+C209+D209/10+E209/100</f>
+        <f t="shared" si="3"/>
         <v>49.6</v>
       </c>
       <c r="B209">
@@ -31493,7 +31509,7 @@
     </row>
     <row r="210" spans="1:24">
       <c r="A210">
-        <f>B210*10+C210+D210/10+E210/100</f>
+        <f t="shared" si="3"/>
         <v>49.7</v>
       </c>
       <c r="B210">
@@ -31559,7 +31575,7 @@
     </row>
     <row r="211" spans="1:24">
       <c r="A211">
-        <f>B211*10+C211+D211/10+E211/100</f>
+        <f t="shared" si="3"/>
         <v>49.8</v>
       </c>
       <c r="B211">
@@ -31625,7 +31641,7 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212">
-        <f>B212*10+C212+D212/10+E212/100</f>
+        <f t="shared" si="3"/>
         <v>49.9</v>
       </c>
       <c r="B212">
@@ -31691,7 +31707,7 @@
     </row>
     <row r="213" spans="1:24">
       <c r="A213">
-        <f>B213*10+C213+D213/10+E213/100</f>
+        <f t="shared" si="3"/>
         <v>49.91</v>
       </c>
       <c r="B213">
@@ -31757,7 +31773,7 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214">
-        <f>B214*10+C214+D214/10+E214/100</f>
+        <f t="shared" si="3"/>
         <v>49.92</v>
       </c>
       <c r="B214">
@@ -31823,7 +31839,7 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215">
-        <f>B215*10+C215+D215/10+E215/100</f>
+        <f t="shared" si="3"/>
         <v>49.93</v>
       </c>
       <c r="B215">
@@ -31889,7 +31905,7 @@
     </row>
     <row r="216" spans="1:24">
       <c r="A216">
-        <f>B216*10+C216+D216/10+E216/100</f>
+        <f t="shared" si="3"/>
         <v>49.94</v>
       </c>
       <c r="B216">
@@ -31955,7 +31971,7 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217">
-        <f>B217*10+C217+D217/10+E217/100</f>
+        <f t="shared" si="3"/>
         <v>49.95</v>
       </c>
       <c r="B217">
@@ -32021,7 +32037,7 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218">
-        <f>B218*10+C218+D218/10+E218/100</f>
+        <f t="shared" si="3"/>
         <v>49.96</v>
       </c>
       <c r="B218">
@@ -32087,7 +32103,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA218">
-    <sortState ref="A2:AA218">
+    <sortState ref="A1:AA218">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
@@ -32107,14 +32123,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.5701754385965" customWidth="1"/>
-    <col min="2" max="2" width="13.7105263157895" customWidth="1"/>
-    <col min="3" max="3" width="14.5701754385965" customWidth="1"/>
-    <col min="4" max="4" width="37.859649122807" customWidth="1"/>
-    <col min="5" max="5" width="16.5701754385965" customWidth="1"/>
-    <col min="6" max="6" width="22.859649122807" customWidth="1"/>
+    <col min="1" max="1" width="16.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="13.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="14.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="37.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="22.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -36810,10 +36826,2428 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71052631578947" defaultRowHeight="14.2"/>
+  <sheetFormatPr defaultColWidth="8.71296296296296" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C218"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>164</v>
+      </c>
+      <c r="C5">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>165</v>
+      </c>
+      <c r="C6">
+        <v>0.977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>166</v>
+      </c>
+      <c r="C7">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>168</v>
+      </c>
+      <c r="C9">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>169</v>
+      </c>
+      <c r="C10">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+      <c r="C11">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>171</v>
+      </c>
+      <c r="C12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>0.936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>0.917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>0.913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>0.899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>154</v>
+      </c>
+      <c r="C24">
+        <v>0.894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>156</v>
+      </c>
+      <c r="C25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>157</v>
+      </c>
+      <c r="C26">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>158</v>
+      </c>
+      <c r="C27">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>159</v>
+      </c>
+      <c r="C28">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>160</v>
+      </c>
+      <c r="C29">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>161</v>
+      </c>
+      <c r="C30">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>162</v>
+      </c>
+      <c r="C31">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>163</v>
+      </c>
+      <c r="C32">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>143</v>
+      </c>
+      <c r="C33">
+        <v>0.853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>144</v>
+      </c>
+      <c r="C34">
+        <v>0.849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>145</v>
+      </c>
+      <c r="C35">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>146</v>
+      </c>
+      <c r="C36">
+        <v>0.839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>147</v>
+      </c>
+      <c r="C37">
+        <v>0.835</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>148</v>
+      </c>
+      <c r="C38">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>149</v>
+      </c>
+      <c r="C39">
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>150</v>
+      </c>
+      <c r="C40">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>151</v>
+      </c>
+      <c r="C41">
+        <v>0.817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>152</v>
+      </c>
+      <c r="C42">
+        <v>0.812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>153</v>
+      </c>
+      <c r="C43">
+        <v>0.807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+      <c r="C44">
+        <v>0.803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>213</v>
+      </c>
+      <c r="C45">
+        <v>0.798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>214</v>
+      </c>
+      <c r="C46">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>215</v>
+      </c>
+      <c r="C47">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>216</v>
+      </c>
+      <c r="C48">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>217</v>
+      </c>
+      <c r="C49">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>0.761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>0.757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>0.739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>0.729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>72</v>
+      </c>
+      <c r="C62">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>103</v>
+      </c>
+      <c r="C63">
+        <v>0.716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>104</v>
+      </c>
+      <c r="C64">
+        <v>0.711</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>105</v>
+      </c>
+      <c r="C65">
+        <v>0.706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>130</v>
+      </c>
+      <c r="C66">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>131</v>
+      </c>
+      <c r="C67">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>132</v>
+      </c>
+      <c r="C68">
+        <v>0.693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>133</v>
+      </c>
+      <c r="C69">
+        <v>0.688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>134</v>
+      </c>
+      <c r="C70">
+        <v>0.683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>135</v>
+      </c>
+      <c r="C71">
+        <v>0.679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>136</v>
+      </c>
+      <c r="C72">
+        <v>0.674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>137</v>
+      </c>
+      <c r="C73">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>0.661</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>0.656</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>0.651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>116</v>
+      </c>
+      <c r="C78">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>122</v>
+      </c>
+      <c r="C79">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>123</v>
+      </c>
+      <c r="C80">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>124</v>
+      </c>
+      <c r="C81">
+        <v>0.633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>125</v>
+      </c>
+      <c r="C82">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>126</v>
+      </c>
+      <c r="C83">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>127</v>
+      </c>
+      <c r="C84">
+        <v>0.619</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>128</v>
+      </c>
+      <c r="C85">
+        <v>0.615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>129</v>
+      </c>
+      <c r="C86">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>106</v>
+      </c>
+      <c r="C87">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>107</v>
+      </c>
+      <c r="C88">
+        <v>0.601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>108</v>
+      </c>
+      <c r="C89">
+        <v>0.596</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>109</v>
+      </c>
+      <c r="C90">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>110</v>
+      </c>
+      <c r="C91">
+        <v>0.587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>111</v>
+      </c>
+      <c r="C92">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>112</v>
+      </c>
+      <c r="C93">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>113</v>
+      </c>
+      <c r="C94">
+        <v>0.573</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>114</v>
+      </c>
+      <c r="C95">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>115</v>
+      </c>
+      <c r="C96">
+        <v>0.564</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>117</v>
+      </c>
+      <c r="C97">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>118</v>
+      </c>
+      <c r="C98">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>119</v>
+      </c>
+      <c r="C99">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>120</v>
+      </c>
+      <c r="C100">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>121</v>
+      </c>
+      <c r="C101">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>138</v>
+      </c>
+      <c r="C102">
+        <v>0.537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>139</v>
+      </c>
+      <c r="C103">
+        <v>0.532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>140</v>
+      </c>
+      <c r="C104">
+        <v>0.528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>141</v>
+      </c>
+      <c r="C105">
+        <v>0.523</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>142</v>
+      </c>
+      <c r="C106">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>96</v>
+      </c>
+      <c r="C107">
+        <v>0.514</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>97</v>
+      </c>
+      <c r="C108">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>98</v>
+      </c>
+      <c r="C109">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>185</v>
+      </c>
+      <c r="C110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>186</v>
+      </c>
+      <c r="C111">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>187</v>
+      </c>
+      <c r="C112">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>188</v>
+      </c>
+      <c r="C113">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>189</v>
+      </c>
+      <c r="C114">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>192</v>
+      </c>
+      <c r="C115">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>193</v>
+      </c>
+      <c r="C116">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>194</v>
+      </c>
+      <c r="C117">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>195</v>
+      </c>
+      <c r="C118">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>196</v>
+      </c>
+      <c r="C119">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>197</v>
+      </c>
+      <c r="C120">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>198</v>
+      </c>
+      <c r="C121">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>199</v>
+      </c>
+      <c r="C122">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>181</v>
+      </c>
+      <c r="C123">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>182</v>
+      </c>
+      <c r="C124">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>183</v>
+      </c>
+      <c r="C125">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>184</v>
+      </c>
+      <c r="C126">
+        <v>0.427</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>190</v>
+      </c>
+      <c r="C127">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>191</v>
+      </c>
+      <c r="C128">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>204</v>
+      </c>
+      <c r="C129">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>205</v>
+      </c>
+      <c r="C130">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>206</v>
+      </c>
+      <c r="C131">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>207</v>
+      </c>
+      <c r="C132">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>208</v>
+      </c>
+      <c r="C133">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>209</v>
+      </c>
+      <c r="C134">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>210</v>
+      </c>
+      <c r="C135">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>211</v>
+      </c>
+      <c r="C136">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>212</v>
+      </c>
+      <c r="C137">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>200</v>
+      </c>
+      <c r="C138">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>201</v>
+      </c>
+      <c r="C139">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>202</v>
+      </c>
+      <c r="C140">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>203</v>
+      </c>
+      <c r="C141">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>172</v>
+      </c>
+      <c r="C142">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>173</v>
+      </c>
+      <c r="C143">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>174</v>
+      </c>
+      <c r="C144">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>175</v>
+      </c>
+      <c r="C145">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>176</v>
+      </c>
+      <c r="C146">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>177</v>
+      </c>
+      <c r="C147">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>178</v>
+      </c>
+      <c r="C148">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>179</v>
+      </c>
+      <c r="C149">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>180</v>
+      </c>
+      <c r="C150">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>64</v>
+      </c>
+      <c r="C151">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>65</v>
+      </c>
+      <c r="C152">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>66</v>
+      </c>
+      <c r="C153">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>67</v>
+      </c>
+      <c r="C154">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>68</v>
+      </c>
+      <c r="C155">
+        <v>0.294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>39</v>
+      </c>
+      <c r="C156">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>40</v>
+      </c>
+      <c r="C157">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>41</v>
+      </c>
+      <c r="C158">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>42</v>
+      </c>
+      <c r="C159">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>43</v>
+      </c>
+      <c r="C160">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>44</v>
+      </c>
+      <c r="C161">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>45</v>
+      </c>
+      <c r="C162">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>22</v>
+      </c>
+      <c r="C163">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>23</v>
+      </c>
+      <c r="C164">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>24</v>
+      </c>
+      <c r="C165">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>0.243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>0.239</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>0.229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>0.206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>61</v>
+      </c>
+      <c r="C175">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>62</v>
+      </c>
+      <c r="C176">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>63</v>
+      </c>
+      <c r="C177">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>14</v>
+      </c>
+      <c r="C179">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>16</v>
+      </c>
+      <c r="C181">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>17</v>
+      </c>
+      <c r="C182">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>18</v>
+      </c>
+      <c r="C183">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>20</v>
+      </c>
+      <c r="C185">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>21</v>
+      </c>
+      <c r="C186">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>11</v>
+      </c>
+      <c r="C189">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>12</v>
+      </c>
+      <c r="C190">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>27</v>
+      </c>
+      <c r="C191">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>28</v>
+      </c>
+      <c r="C192">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>29</v>
+      </c>
+      <c r="C193">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>30</v>
+      </c>
+      <c r="C194">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>31</v>
+      </c>
+      <c r="C195">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>32</v>
+      </c>
+      <c r="C196">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>33</v>
+      </c>
+      <c r="C197">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>34</v>
+      </c>
+      <c r="C198">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>35</v>
+      </c>
+      <c r="C199">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>26</v>
+      </c>
+      <c r="C200">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>36</v>
+      </c>
+      <c r="C201">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>37</v>
+      </c>
+      <c r="C202">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>38</v>
+      </c>
+      <c r="C203">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>52</v>
+      </c>
+      <c r="C204">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>53</v>
+      </c>
+      <c r="C205">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>54</v>
+      </c>
+      <c r="C206">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>55</v>
+      </c>
+      <c r="C207">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>56</v>
+      </c>
+      <c r="C208">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>57</v>
+      </c>
+      <c r="C209">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>58</v>
+      </c>
+      <c r="C210">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>59</v>
+      </c>
+      <c r="C211">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>60</v>
+      </c>
+      <c r="C212">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>46</v>
+      </c>
+      <c r="C213">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>47</v>
+      </c>
+      <c r="C214">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>48</v>
+      </c>
+      <c r="C215">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>49</v>
+      </c>
+      <c r="C216">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>50</v>
+      </c>
+      <c r="C217">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>51</v>
+      </c>
+      <c r="C218">
+        <v>0.005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>